--- a/experiments/09_power_eval_1/power_overview.xlsx
+++ b/experiments/09_power_eval_1/power_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TEMP2\experiment_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0716A9A-1104-45D7-9A77-B772A18365B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9E802-B44D-4495-A1F4-AABE952232DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0898FE6E-F5CD-43FD-BC5E-7A2BB4BF2745}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>noB LTF</t>
   </si>
   <si>
-    <t>P/T</t>
+    <t>T/P</t>
   </si>
 </sst>
 </file>
